--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-proposal-type</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-proposal-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-prescription-proposal-type</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-prescription-proposal-type</t>
   </si>
 </sst>
 </file>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -282,7 +285,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -296,72 +301,74 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -383,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>If the status of the request is proposal, this valueset indicates the different types of proposal</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -349,26 +352,28 @@
       <c r="A13" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -390,28 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,9 +51,6 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>If the status of the request is proposal, this valueset indicates the different types of proposal</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -288,9 +282,7 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -304,76 +296,72 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -395,28 +383,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,6 +51,9 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>If the status of the request is proposal, this valueset indicates the different types of proposal</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -282,7 +288,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -296,72 +304,76 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -383,28 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-proposal-type.xlsx
+++ b/branches/ValueSet-be-vs-proposal-type.xlsx
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
